--- a/González Nuñez Veronica 20212.xlsx
+++ b/González Nuñez Veronica 20212.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="1057">
   <si>
     <t>NC</t>
   </si>
@@ -2856,9 +2856,6 @@
     <t>ELIAS ALONSO</t>
   </si>
   <si>
-    <t>JESUS</t>
-  </si>
-  <si>
     <t>KARLA RENATA</t>
   </si>
   <si>
@@ -2919,9 +2916,6 @@
     <t>eliashernandezdiaz05@gmail.com</t>
   </si>
   <si>
-    <t>jesushernandezsarmiento108@gmail.com</t>
-  </si>
-  <si>
     <t>karlarenatalc@gmail.com</t>
   </si>
   <si>
@@ -2982,9 +2976,6 @@
     <t>5530259182</t>
   </si>
   <si>
-    <t>2722146369</t>
-  </si>
-  <si>
     <t>2722371602</t>
   </si>
   <si>
@@ -3067,9 +3058,6 @@
   </si>
   <si>
     <t>FRANCISCO JAVIER HERNANDEZ GONZÁLEZ</t>
-  </si>
-  <si>
-    <t>JORGE HERNÁNDEZ ATLAHUA</t>
   </si>
   <si>
     <t>DAVID ARTURO TEOBAL MONTIEL</t>
@@ -4001,6 +3989,9 @@
       <c r="J13" t="s">
         <v>146</v>
       </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
@@ -8263,7 +8254,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8327,10 +8318,10 @@
         <v>937</v>
       </c>
       <c r="E2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G2" t="s">
         <v>716</v>
@@ -8362,19 +8353,19 @@
         <v>938</v>
       </c>
       <c r="E3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="G3" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="H3" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="J3" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -8394,22 +8385,22 @@
         <v>939</v>
       </c>
       <c r="E4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G4" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="H4" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="I4" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="J4" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -8429,22 +8420,22 @@
         <v>940</v>
       </c>
       <c r="E5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="G5" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="H5" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="I5" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J5" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -8464,22 +8455,22 @@
         <v>941</v>
       </c>
       <c r="E6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F6" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G6" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H6" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="I6" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="J6" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -8499,22 +8490,22 @@
         <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F7" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="G7" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I7" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="J7" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -8534,22 +8525,22 @@
         <v>942</v>
       </c>
       <c r="E8" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F8" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G8" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="H8" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="I8" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="J8" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -8569,19 +8560,19 @@
         <v>943</v>
       </c>
       <c r="E9" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F9" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H9" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I9" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="J9" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -8601,22 +8592,22 @@
         <v>944</v>
       </c>
       <c r="E10" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F10" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G10" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="I10" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="J10" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -8624,34 +8615,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>20330051920346</v>
+        <v>20330051920271</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>404</v>
+        <v>935</v>
       </c>
       <c r="D11" t="s">
         <v>945</v>
       </c>
       <c r="E11" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F11" t="s">
-        <v>987</v>
-      </c>
-      <c r="G11" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H11" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="I11" t="s">
-        <v>966</v>
+        <v>1031</v>
       </c>
       <c r="J11" t="s">
-        <v>987</v>
+        <v>1047</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -8659,95 +8647,98 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>20330051920271</v>
+        <v>20330051920272</v>
       </c>
       <c r="B12" t="s">
         <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>935</v>
+        <v>178</v>
       </c>
       <c r="D12" t="s">
         <v>946</v>
       </c>
       <c r="E12" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F12" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="H12" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="I12" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="J12" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>20330051920272</v>
+        <v>19220030050208</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>927</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>936</v>
       </c>
       <c r="D13" t="s">
         <v>947</v>
       </c>
       <c r="E13" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F13" t="s">
-        <v>989</v>
+        <v>987</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1001</v>
       </c>
       <c r="H13" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="I13" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1052</v>
+        <v>1033</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>19220030050208</v>
+        <v>20330051920273</v>
       </c>
       <c r="B14" t="s">
-        <v>927</v>
+        <v>798</v>
       </c>
       <c r="C14" t="s">
-        <v>936</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>948</v>
       </c>
       <c r="E14" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F14" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G14" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="H14" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="I14" t="s">
-        <v>1037</v>
+        <v>1034</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1049</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -8755,34 +8746,31 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>20330051920273</v>
+        <v>20330051920274</v>
       </c>
       <c r="B15" t="s">
-        <v>798</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
         <v>949</v>
       </c>
       <c r="E15" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F15" t="s">
-        <v>991</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="H15" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="I15" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="J15" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -8790,63 +8778,66 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>20330051920274</v>
+        <v>20330051920276</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>425</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
         <v>950</v>
       </c>
       <c r="E16" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F16" t="s">
-        <v>992</v>
+        <v>990</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1003</v>
       </c>
       <c r="H16" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="I16" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="J16" t="s">
-        <v>1054</v>
+        <v>1051</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>20330051920276</v>
+        <v>19330051920238</v>
       </c>
       <c r="B17" t="s">
-        <v>425</v>
+        <v>928</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>951</v>
       </c>
       <c r="E17" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F17" t="s">
-        <v>993</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1006</v>
+        <v>991</v>
       </c>
       <c r="H17" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="I17" t="s">
-        <v>1040</v>
+        <v>971</v>
       </c>
       <c r="J17" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -8854,167 +8845,135 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>19330051920238</v>
+        <v>20330051920278</v>
       </c>
       <c r="B18" t="s">
-        <v>928</v>
+        <v>411</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
         <v>952</v>
       </c>
       <c r="E18" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F18" t="s">
-        <v>994</v>
+        <v>992</v>
+      </c>
+      <c r="G18" t="s">
+        <v>722</v>
       </c>
       <c r="H18" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="I18" t="s">
-        <v>973</v>
+        <v>1037</v>
       </c>
       <c r="J18" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920278</v>
+        <v>20330051920279</v>
       </c>
       <c r="B19" t="s">
-        <v>411</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>953</v>
       </c>
       <c r="E19" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F19" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G19" t="s">
-        <v>722</v>
+        <v>1004</v>
       </c>
       <c r="H19" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="I19" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="J19" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>20330051920279</v>
+        <v>20330051920281</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>929</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>414</v>
       </c>
       <c r="D20" t="s">
         <v>954</v>
       </c>
       <c r="E20" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F20" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G20" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="H20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1042</v>
+        <v>1022</v>
       </c>
       <c r="J20" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>20330051920281</v>
+        <v>20330051920282</v>
       </c>
       <c r="B21" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C21" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D21" t="s">
         <v>955</v>
       </c>
       <c r="E21" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F21" t="s">
-        <v>997</v>
-      </c>
-      <c r="G21" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H21" t="s">
-        <v>1026</v>
+        <v>1023</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1039</v>
       </c>
       <c r="J21" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
-        <v>20330051920282</v>
-      </c>
-      <c r="B22" t="s">
-        <v>930</v>
-      </c>
-      <c r="C22" t="s">
-        <v>411</v>
-      </c>
-      <c r="D22" t="s">
-        <v>956</v>
-      </c>
-      <c r="E22" t="s">
-        <v>977</v>
-      </c>
-      <c r="F22" t="s">
-        <v>998</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1027</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1060</v>
-      </c>
-      <c r="K22">
         <v>0</v>
       </c>
     </row>

--- a/González Nuñez Veronica 20212.xlsx
+++ b/González Nuñez Veronica 20212.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="1063">
   <si>
     <t>NC</t>
   </si>
@@ -486,6 +486,9 @@
     <t>CONGUILLO</t>
   </si>
   <si>
+    <t>CORONA</t>
+  </si>
+  <si>
     <t>CUATRA</t>
   </si>
   <si>
@@ -612,6 +615,9 @@
     <t>CONSUELO DALILA</t>
   </si>
   <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
     <t>MARIA</t>
   </si>
   <si>
@@ -663,9 +669,6 @@
     <t>SANDY SAMARA</t>
   </si>
   <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
     <t>KARLA</t>
   </si>
   <si>
@@ -708,6 +711,9 @@
     <t>joanakaory567@gmail.com</t>
   </si>
   <si>
+    <t>fernandacorona771@gmail.com</t>
+  </si>
+  <si>
     <t>cuatramaria7@gmail.com</t>
   </si>
   <si>
@@ -810,6 +816,9 @@
     <t>2722370860</t>
   </si>
   <si>
+    <t>2721758700</t>
+  </si>
+  <si>
     <t>2721969745</t>
   </si>
   <si>
@@ -942,6 +951,9 @@
     <t>IRENE MINERVA GONZÁLEZ REYES</t>
   </si>
   <si>
+    <t>IRVING CORONA ROQUE</t>
+  </si>
+  <si>
     <t>DANIEL CUATRA CANDELARIA</t>
   </si>
   <si>
@@ -1041,6 +1053,9 @@
     <t>Josealbertocarreraventura@gmail.com</t>
   </si>
   <si>
+    <t>kyo1189@hotmail.com</t>
+  </si>
+  <si>
     <t>Marthacuatra6@gmail.com</t>
   </si>
   <si>
@@ -1114,6 +1129,9 @@
   </si>
   <si>
     <t>2721913160</t>
+  </si>
+  <si>
+    <t>2722867518</t>
   </si>
   <si>
     <t>2294934088</t>
@@ -4227,7 +4245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4288,25 +4306,25 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="I2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="J2" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -4320,28 +4338,28 @@
         <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -4355,25 +4373,25 @@
         <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="I4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J4" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -4381,69 +4399,66 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>20330051920121</v>
+        <v>20330051920119</v>
       </c>
       <c r="B5" t="s">
         <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="J5" t="s">
-        <v>365</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>20330051920122</v>
+        <v>20330051920121</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
         <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H6" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="J6" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -4451,34 +4466,34 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>20330051920123</v>
+        <v>20330051920122</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G7" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="H7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="J7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -4486,7 +4501,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>20330051920124</v>
+        <v>20330051920123</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
@@ -4495,25 +4510,25 @@
         <v>178</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I8" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="J8" t="s">
-        <v>266</v>
+        <v>373</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -4521,66 +4536,69 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>20330051920125</v>
+        <v>20330051920124</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I9" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J9" t="s">
-        <v>368</v>
+        <v>269</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>20330051920126</v>
+        <v>20330051920125</v>
       </c>
       <c r="B10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>156</v>
-      </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G10" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="H10" t="s">
-        <v>312</v>
+        <v>315</v>
+      </c>
+      <c r="I10" t="s">
+        <v>349</v>
       </c>
       <c r="J10" t="s">
-        <v>268</v>
+        <v>374</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -4588,31 +4606,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>20330051920127</v>
+        <v>20330051920126</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F11" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="G11" t="s">
+        <v>271</v>
       </c>
       <c r="H11" t="s">
-        <v>313</v>
-      </c>
-      <c r="I11" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="J11" t="s">
-        <v>369</v>
+        <v>271</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -4620,66 +4638,63 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>20330051920128</v>
+        <v>20330051920127</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F12" t="s">
-        <v>270</v>
-      </c>
-      <c r="G12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H12" t="s">
-        <v>314</v>
+        <v>317</v>
+      </c>
+      <c r="I12" t="s">
+        <v>350</v>
       </c>
       <c r="J12" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>20330051920129</v>
+        <v>20330051920128</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>180</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H13" t="s">
-        <v>315</v>
-      </c>
-      <c r="I13" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="J13" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -4687,42 +4702,42 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>20330051920131</v>
+        <v>20330051920129</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>181</v>
       </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G14" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="H14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="I14" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="J14" t="s">
-        <v>298</v>
+        <v>377</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>20330051920132</v>
+        <v>20330051920131</v>
       </c>
       <c r="B15" t="s">
         <v>158</v>
@@ -4731,86 +4746,89 @@
         <v>182</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F15" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="G15" t="s">
+        <v>301</v>
       </c>
       <c r="H15" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="I15" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="J15" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>20330051920133</v>
+        <v>20330051920132</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
         <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H16" t="s">
-        <v>318</v>
+        <v>321</v>
+      </c>
+      <c r="I16" t="s">
+        <v>353</v>
       </c>
       <c r="J16" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>20330051920134</v>
+        <v>20330051920133</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
         <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F17" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G17" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H17" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J17" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -4818,31 +4836,31 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>20330051920135</v>
+        <v>20330051920134</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F18" t="s">
-        <v>276</v>
+        <v>278</v>
+      </c>
+      <c r="G18" t="s">
+        <v>278</v>
       </c>
       <c r="H18" t="s">
-        <v>320</v>
-      </c>
-      <c r="I18" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="J18" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4850,31 +4868,31 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920136</v>
+        <v>20330051920135</v>
       </c>
       <c r="B19" t="s">
         <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="D19" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F19" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H19" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I19" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="J19" t="s">
-        <v>277</v>
+        <v>381</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -4882,42 +4900,39 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>20330051920137</v>
+        <v>20330051920136</v>
       </c>
       <c r="B20" t="s">
         <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F20" t="s">
-        <v>278</v>
-      </c>
-      <c r="G20" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H20" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I20" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="J20" t="s">
-        <v>376</v>
+        <v>280</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>20330051920139</v>
+        <v>20330051920137</v>
       </c>
       <c r="B21" t="s">
         <v>162</v>
@@ -4926,22 +4941,25 @@
         <v>187</v>
       </c>
       <c r="D21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F21" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G21" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H21" t="s">
-        <v>323</v>
+        <v>326</v>
+      </c>
+      <c r="I21" t="s">
+        <v>356</v>
       </c>
       <c r="J21" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -4949,109 +4967,109 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>19330051920387</v>
+        <v>20330051920139</v>
       </c>
       <c r="B22" t="s">
         <v>163</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F22" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G22" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H22" t="s">
-        <v>324</v>
-      </c>
-      <c r="I22" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="J22" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>20330051920140</v>
+        <v>19330051920387</v>
       </c>
       <c r="B23" t="s">
         <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F23" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G23" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H23" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I23" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="J23" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>20330051920141</v>
+        <v>20330051920140</v>
       </c>
       <c r="B24" t="s">
         <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F24" t="s">
-        <v>282</v>
+        <v>284</v>
+      </c>
+      <c r="G24" t="s">
+        <v>284</v>
       </c>
       <c r="H24" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I24" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J24" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>20330051920389</v>
+        <v>20330051920141</v>
       </c>
       <c r="B25" t="s">
         <v>166</v>
@@ -5063,22 +5081,19 @@
         <v>216</v>
       </c>
       <c r="E25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F25" t="s">
-        <v>283</v>
-      </c>
-      <c r="G25" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="H25" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I25" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J25" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -5086,74 +5101,74 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>20330051920142</v>
+        <v>20330051920389</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s">
         <v>217</v>
       </c>
       <c r="E26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F26" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G26" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H26" t="s">
-        <v>328</v>
+        <v>331</v>
+      </c>
+      <c r="I26" t="s">
+        <v>360</v>
       </c>
       <c r="J26" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>20330051920143</v>
+        <v>20330051920142</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
         <v>218</v>
       </c>
       <c r="E27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F27" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G27" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H27" t="s">
-        <v>329</v>
-      </c>
-      <c r="I27" t="s">
-        <v>251</v>
+        <v>332</v>
       </c>
       <c r="J27" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>20330051920144</v>
+        <v>20330051920143</v>
       </c>
       <c r="B28" t="s">
         <v>168</v>
@@ -5165,22 +5180,22 @@
         <v>219</v>
       </c>
       <c r="E28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F28" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H28" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I28" t="s">
-        <v>356</v>
+        <v>253</v>
       </c>
       <c r="J28" t="s">
-        <v>302</v>
+        <v>389</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -5188,136 +5203,136 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>20330051920387</v>
+        <v>20330051920144</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="D29" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F29" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G29" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="H29" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I29" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="J29" t="s">
-        <v>384</v>
+        <v>305</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>20330051920145</v>
+        <v>20330051920387</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="E30" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F30" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G30" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="H30" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I30" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J30" t="s">
-        <v>303</v>
+        <v>390</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>20330051920148</v>
+        <v>20330051920145</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
         <v>221</v>
       </c>
       <c r="E31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F31" t="s">
-        <v>289</v>
+        <v>291</v>
+      </c>
+      <c r="G31" t="s">
+        <v>306</v>
       </c>
       <c r="H31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I31" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="J31" t="s">
-        <v>385</v>
+        <v>306</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>20330051920150</v>
+        <v>20330051920148</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="D32" t="s">
         <v>222</v>
       </c>
       <c r="E32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G32" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H32" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I32" t="s">
-        <v>256</v>
+        <v>364</v>
       </c>
       <c r="J32" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -5325,100 +5340,135 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>20330051920151</v>
+        <v>20330051920150</v>
       </c>
       <c r="B33" t="s">
         <v>171</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
         <v>223</v>
       </c>
       <c r="E33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H33" t="s">
-        <v>335</v>
+        <v>338</v>
+      </c>
+      <c r="I33" t="s">
+        <v>258</v>
       </c>
       <c r="J33" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>20330051920153</v>
+        <v>20330051920151</v>
       </c>
       <c r="B34" t="s">
         <v>172</v>
       </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
       <c r="D34" t="s">
         <v>224</v>
       </c>
       <c r="E34" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G34" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
-      </c>
-      <c r="I34" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="J34" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>19330051920145</v>
+        <v>20330051920153</v>
       </c>
       <c r="B35" t="s">
         <v>173</v>
       </c>
-      <c r="C35" t="s">
-        <v>193</v>
-      </c>
       <c r="D35" t="s">
         <v>225</v>
       </c>
       <c r="E35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F35" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G35" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H35" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="I35" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="J35" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>19330051920145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" t="s">
+        <v>226</v>
+      </c>
+      <c r="E36" t="s">
+        <v>261</v>
+      </c>
+      <c r="F36" t="s">
+        <v>296</v>
+      </c>
+      <c r="G36" t="s">
+        <v>296</v>
+      </c>
+      <c r="H36" t="s">
+        <v>341</v>
+      </c>
+      <c r="I36" t="s">
+        <v>366</v>
+      </c>
+      <c r="J36" t="s">
+        <v>395</v>
+      </c>
+      <c r="K36">
         <v>2</v>
       </c>
     </row>
@@ -5484,31 +5534,31 @@
         <v>20330051920041</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="E2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="H2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="I2" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="J2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -5519,28 +5569,28 @@
         <v>20330051920071</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="E3" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F3" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="G3" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="H3" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="J3" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -5554,28 +5604,28 @@
         <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D4" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E4" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F4" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="G4" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="H4" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="I4" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="J4" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -5586,31 +5636,31 @@
         <v>20330051920073</v>
       </c>
       <c r="B5" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C5" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D5" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E5" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F5" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="G5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="H5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="I5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="J5" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -5621,31 +5671,31 @@
         <v>20330051920359</v>
       </c>
       <c r="B6" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="E6" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F6" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="G6" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="H6" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="I6" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="J6" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5656,31 +5706,31 @@
         <v>20330051920074</v>
       </c>
       <c r="B7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="E7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="G7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="H7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="I7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -5691,31 +5741,31 @@
         <v>20330051920075</v>
       </c>
       <c r="B8" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="E8" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="F8" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G8" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="H8" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="I8" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="J8" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -5726,28 +5776,28 @@
         <v>19330051920051</v>
       </c>
       <c r="B9" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E9" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F9" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="H9" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="I9" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="J9" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5758,25 +5808,25 @@
         <v>20330051920077</v>
       </c>
       <c r="B10" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E10" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F10" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="G10" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="H10" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -5787,31 +5837,31 @@
         <v>20330051920080</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D11" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E11" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="F11" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G11" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="H11" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="I11" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="J11" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -5822,31 +5872,31 @@
         <v>20330051920081</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D12" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E12" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F12" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="G12" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="H12" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="I12" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="J12" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -5857,31 +5907,31 @@
         <v>20330051920082</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D13" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E13" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F13" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="G13" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H13" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="I13" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="J13" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -5892,28 +5942,28 @@
         <v>20330051920084</v>
       </c>
       <c r="B14" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C14" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D14" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E14" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="F14" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G14" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="H14" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="J14" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -5924,31 +5974,31 @@
         <v>20330051920087</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="E15" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F15" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="G15" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="H15" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="I15" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="J15" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -5959,31 +6009,31 @@
         <v>20330051920088</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="E16" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F16" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="G16" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="H16" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="I16" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="J16" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -5997,28 +6047,28 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D17" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E17" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F17" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="G17" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="H17" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="I17" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="J17" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -6029,25 +6079,25 @@
         <v>20330051920090</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D18" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="E18" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F18" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="H18" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="I18" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -6058,28 +6108,28 @@
         <v>20330051920091</v>
       </c>
       <c r="B19" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E19" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F19" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="H19" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="I19" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="J19" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -6090,7 +6140,7 @@
         <v>20330051920092</v>
       </c>
       <c r="B20" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -6099,22 +6149,22 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F20" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="G20" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="H20" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="I20" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="J20" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -6128,28 +6178,28 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D21" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="E21" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F21" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="G21" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="H21" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="I21" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="J21" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -6163,28 +6213,28 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D22" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E22" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F22" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G22" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="H22" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="I22" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="J22" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -6195,28 +6245,28 @@
         <v>20330051920061</v>
       </c>
       <c r="B23" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C23" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D23" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="E23" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F23" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="H23" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="I23" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="J23" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -6227,31 +6277,31 @@
         <v>20330051920062</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E24" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F24" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="G24" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="H24" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="I24" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="J24" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -6262,31 +6312,31 @@
         <v>20330051920063</v>
       </c>
       <c r="B25" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C25" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D25" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E25" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F25" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="G25" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="H25" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="I25" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="J25" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -6297,31 +6347,31 @@
         <v>20330051920064</v>
       </c>
       <c r="B26" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C26" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D26" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E26" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F26" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="G26" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="H26" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="I26" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="J26" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -6332,31 +6382,31 @@
         <v>20330051920065</v>
       </c>
       <c r="B27" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C27" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D27" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="E27" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F27" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="G27" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="H27" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="I27" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="J27" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -6367,31 +6417,31 @@
         <v>20330051920066</v>
       </c>
       <c r="B28" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C28" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D28" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="E28" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F28" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G28" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="H28" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="I28" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="J28" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -6402,31 +6452,31 @@
         <v>20330051920068</v>
       </c>
       <c r="B29" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D29" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="E29" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="F29" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="G29" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="H29" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="I29" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="J29" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -6437,31 +6487,31 @@
         <v>20330051920070</v>
       </c>
       <c r="B30" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="E30" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F30" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="G30" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="H30" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="I30" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="J30" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -6472,31 +6522,31 @@
         <v>20330051920069</v>
       </c>
       <c r="B31" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E31" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="F31" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G31" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H31" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="I31" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="J31" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -6507,31 +6557,31 @@
         <v>20330051920386</v>
       </c>
       <c r="B32" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C32" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D32" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="E32" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F32" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="G32" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H32" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="I32" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="J32" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -6599,31 +6649,31 @@
         <v>20330051920190</v>
       </c>
       <c r="B2" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D2" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E2" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="F2" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="G2" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="H2" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="I2" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="J2" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -6634,25 +6684,25 @@
         <v>20330051920191</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="E3" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="F3" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="G3" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="H3" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -6663,31 +6713,31 @@
         <v>20330051920192</v>
       </c>
       <c r="B4" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C4" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D4" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="E4" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="F4" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="G4" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="H4" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="I4" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="J4" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -6704,25 +6754,25 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="E5" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="F5" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="G5" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="H5" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="I5" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="J5" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -6733,31 +6783,31 @@
         <v>20330051920194</v>
       </c>
       <c r="B6" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="E6" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="F6" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="G6" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="H6" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="I6" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="J6" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -6768,31 +6818,31 @@
         <v>20330051920196</v>
       </c>
       <c r="B7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="D7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="E7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="F7" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G7" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="H7" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="I7" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="J7" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -6803,31 +6853,31 @@
         <v>20330051920197</v>
       </c>
       <c r="B8" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C8" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="D8" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="E8" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="F8" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="G8" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="H8" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="I8" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="J8" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -6841,28 +6891,28 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D9" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="E9" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="F9" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="G9" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="H9" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="I9" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="J9" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -6876,28 +6926,28 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D10" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="E10" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="F10" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="G10" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="H10" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="I10" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="J10" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -6908,28 +6958,28 @@
         <v>20330051920200</v>
       </c>
       <c r="B11" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C11" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="D11" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="E11" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F11" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="H11" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="I11" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="J11" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -6943,28 +6993,28 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="E12" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="F12" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="G12" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="H12" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="I12" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="J12" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -6975,25 +7025,25 @@
         <v>19330051920280</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="E13" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="F13" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="H13" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="J13" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -7007,28 +7057,28 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D14" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="E14" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="F14" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="G14" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="H14" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="I14" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="J14" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -7039,31 +7089,31 @@
         <v>20330051920202</v>
       </c>
       <c r="B15" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C15" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E15" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="F15" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="G15" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="H15" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="I15" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="J15" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -7074,28 +7124,28 @@
         <v>20330051920204</v>
       </c>
       <c r="B16" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C16" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D16" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="E16" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="F16" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="H16" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="I16" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="J16" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -7106,28 +7156,28 @@
         <v>20330051920206</v>
       </c>
       <c r="B17" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="E17" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="F17" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="H17" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="I17" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="J17" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -7138,31 +7188,31 @@
         <v>20330051920207</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="D18" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="E18" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="F18" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="G18" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="H18" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="I18" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="J18" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -7173,31 +7223,31 @@
         <v>20330051920208</v>
       </c>
       <c r="B19" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="E19" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="F19" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="G19" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="H19" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="I19" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="J19" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -7208,28 +7258,28 @@
         <v>19330051920290</v>
       </c>
       <c r="B20" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C20" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D20" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="E20" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="F20" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="H20" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="I20" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="J20" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -7243,28 +7293,28 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="D21" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="E21" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="F21" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="G21" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="H21" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="I21" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="J21" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -7275,28 +7325,28 @@
         <v>20330051920210</v>
       </c>
       <c r="B22" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C22" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D22" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="E22" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="F22" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="G22" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="H22" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="I22" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -7307,31 +7357,31 @@
         <v>20330051920212</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="E23" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="F23" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="G23" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="H23" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="I23" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="J23" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -7342,19 +7392,19 @@
         <v>20330051920213</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D24" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="E24" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="F24" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -7368,25 +7418,25 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D25" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="E25" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="F25" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="G25" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="H25" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="J25" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -7403,22 +7453,22 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="E26" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="F26" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="G26" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="H26" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="J26" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -7435,19 +7485,19 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="E27" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="F27" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="H27" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="J27" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -7461,28 +7511,28 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="D28" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="E28" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="F28" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="G28" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="H28" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="I28" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="J28" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -7499,13 +7549,13 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="E29" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="F29" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="H29" t="s">
         <v>123</v>
@@ -7514,7 +7564,7 @@
         <v>138</v>
       </c>
       <c r="J29" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -7525,31 +7575,31 @@
         <v>20330051920219</v>
       </c>
       <c r="B30" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C30" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D30" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E30" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="F30" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="G30" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="H30" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="I30" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="J30" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -7617,25 +7667,25 @@
         <v>20330051920317</v>
       </c>
       <c r="B2" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="C2" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="D2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="E2" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="H2" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="I2" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="J2" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -7646,31 +7696,31 @@
         <v>20330051920318</v>
       </c>
       <c r="B3" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="C3" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D3" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="E3" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="F3" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="G3" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="H3" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="I3" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="J3" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -7681,28 +7731,28 @@
         <v>20330051920320</v>
       </c>
       <c r="B4" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="C4" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="D4" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="E4" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="F4" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="H4" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="I4" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="J4" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -7713,25 +7763,25 @@
         <v>20330051920321</v>
       </c>
       <c r="B5" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="C5" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="D5" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="E5" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="F5" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="G5" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="H5" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -7748,25 +7798,25 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="E6" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="F6" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="G6" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="H6" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="I6" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -7780,28 +7830,28 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D7" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="E7" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="F7" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="G7" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="H7" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="I7" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="J7" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -7812,28 +7862,28 @@
         <v>20330051920380</v>
       </c>
       <c r="B8" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="C8" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="F8" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="H8" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="I8" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="J8" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -7844,31 +7894,31 @@
         <v>20330051920324</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="E9" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="F9" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="G9" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="H9" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="I9" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="J9" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -7882,28 +7932,28 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="D10" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="E10" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="F10" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="G10" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="H10" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="I10" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="J10" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -7914,31 +7964,31 @@
         <v>20330051920397</v>
       </c>
       <c r="B11" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="F11" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="G11" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="H11" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="I11" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="J11" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -7949,28 +7999,28 @@
         <v>20330051920326</v>
       </c>
       <c r="B12" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="E12" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="F12" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="H12" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="I12" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="J12" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -7981,28 +8031,28 @@
         <v>20330051920327</v>
       </c>
       <c r="B13" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="E13" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="F13" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="H13" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="I13" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="J13" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -8013,31 +8063,31 @@
         <v>20330051920328</v>
       </c>
       <c r="B14" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="E14" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="F14" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="G14" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="H14" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="I14" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="J14" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -8048,31 +8098,31 @@
         <v>20330051920396</v>
       </c>
       <c r="B15" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="E15" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="F15" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="G15" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="H15" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="I15" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="J15" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -8086,28 +8136,28 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="D16" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="E16" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="F16" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="G16" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="H16" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="I16" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="J16" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -8118,28 +8168,28 @@
         <v>20330051920330</v>
       </c>
       <c r="B17" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="E17" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="F17" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="G17" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="H17" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="J17" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -8150,31 +8200,31 @@
         <v>20330051920331</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D18" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="E18" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="F18" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="G18" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="H18" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="I18" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="J18" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -8188,28 +8238,28 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="D19" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="E19" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="F19" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="G19" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="H19" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="I19" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="J19" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -8220,28 +8270,28 @@
         <v>20330051920335</v>
       </c>
       <c r="B20" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C20" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="D20" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="E20" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="F20" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="H20" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="I20" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="J20" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -8309,31 +8359,31 @@
         <v>20330051920260</v>
       </c>
       <c r="B2" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D2" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="E2" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="F2" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="G2" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="H2" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="I2" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="J2" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -8344,28 +8394,28 @@
         <v>20330051920261</v>
       </c>
       <c r="B3" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="C3" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D3" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="E3" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="F3" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="G3" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="H3" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="J3" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -8376,31 +8426,31 @@
         <v>19330051920314</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="E4" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="F4" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="G4" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="H4" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="I4" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="J4" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -8411,31 +8461,31 @@
         <v>20330051920262</v>
       </c>
       <c r="B5" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C5" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D5" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="E5" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="F5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="G5" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="H5" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="I5" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="J5" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -8446,31 +8496,31 @@
         <v>20330051920264</v>
       </c>
       <c r="B6" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="C6" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="D6" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="E6" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="F6" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="G6" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="H6" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="I6" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="J6" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -8481,31 +8531,31 @@
         <v>20330051920267</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E7" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="F7" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="G7" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="H7" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="I7" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="J7" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -8516,31 +8566,31 @@
         <v>20330051920268</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="E8" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="F8" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="G8" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="H8" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="I8" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="J8" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -8554,25 +8604,25 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="D9" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="E9" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="F9" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="H9" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="I9" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="J9" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -8586,28 +8636,28 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="D10" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="E10" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="F10" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="G10" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="H10" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="I10" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="J10" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -8618,28 +8668,28 @@
         <v>20330051920271</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="D11" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="E11" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="F11" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="H11" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="I11" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="J11" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -8650,28 +8700,28 @@
         <v>20330051920272</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="E12" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="F12" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="H12" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="I12" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="J12" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -8682,28 +8732,28 @@
         <v>19220030050208</v>
       </c>
       <c r="B13" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="C13" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="D13" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="E13" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="F13" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="G13" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="H13" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="I13" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -8714,31 +8764,31 @@
         <v>20330051920273</v>
       </c>
       <c r="B14" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="E14" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="F14" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="G14" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="H14" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="I14" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="J14" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -8752,25 +8802,25 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="E15" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="F15" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="H15" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="I15" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="J15" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -8781,31 +8831,31 @@
         <v>20330051920276</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="E16" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="F16" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="G16" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="H16" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="I16" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="J16" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -8816,28 +8866,28 @@
         <v>19330051920238</v>
       </c>
       <c r="B17" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="E17" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="F17" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="H17" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="I17" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="J17" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -8848,31 +8898,31 @@
         <v>20330051920278</v>
       </c>
       <c r="B18" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="E18" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="F18" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="G18" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="H18" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="I18" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="J18" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -8883,31 +8933,31 @@
         <v>20330051920279</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="E19" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="F19" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="G19" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="H19" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="I19" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="J19" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -8918,28 +8968,28 @@
         <v>20330051920281</v>
       </c>
       <c r="B20" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="C20" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D20" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="E20" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="F20" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="G20" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="H20" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="J20" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -8950,28 +9000,28 @@
         <v>20330051920282</v>
       </c>
       <c r="B21" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="C21" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D21" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="E21" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="F21" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="H21" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="I21" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="J21" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="K21">
         <v>0</v>

--- a/González Nuñez Veronica 20212.xlsx
+++ b/González Nuñez Veronica 20212.xlsx
@@ -4428,6 +4428,9 @@
       <c r="J5" t="s">
         <v>370</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
@@ -6036,7 +6039,7 @@
         <v>528</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6880,7 +6883,7 @@
         <v>725</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7384,7 +7387,7 @@
         <v>791</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
